--- a/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D1CCBD-1535-46CB-A9EA-476C208DE296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7581D01-C883-4429-A33D-AD8CB13EB92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="14" r:id="rId1"/>
@@ -875,6 +875,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -884,7 +885,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{EE902F2F-0484-4915-A690-4EC96DD96FB2}"/>
@@ -2098,12 +2098,12 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
@@ -2187,11 +2187,11 @@
       <c r="A19" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -2219,11 +2219,11 @@
       <c r="A20" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
@@ -2311,11 +2311,11 @@
       <c r="A23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -2399,11 +2399,11 @@
       <c r="A26" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -2519,11 +2519,11 @@
       <c r="A30" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="13"/>
@@ -2551,11 +2551,11 @@
       <c r="A31" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="13"/>
@@ -5276,8 +5276,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:N1304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1272" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1307" sqref="E1307"/>
+    <sheetView tabSelected="1" topLeftCell="A1263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1250" sqref="H1250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7158,7 +7158,7 @@
       <c r="I54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N54" s="33" t="s">
+      <c r="N54" s="30" t="s">
         <v>136</v>
       </c>
     </row>

--- a/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7581D01-C883-4429-A33D-AD8CB13EB92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0096E09-B42F-4B57-A4BD-FD2593119125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="135">
   <si>
     <t>National</t>
   </si>
@@ -558,12 +558,6 @@
     <t>HETD</t>
   </si>
   <si>
-    <t>RSDAHT</t>
-  </si>
-  <si>
-    <t>RSDAHT2</t>
-  </si>
-  <si>
     <t>RENAHT</t>
   </si>
 </sst>
@@ -875,7 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +878,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{EE902F2F-0484-4915-A690-4EC96DD96FB2}"/>
@@ -1311,7 +1305,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB0DF0A-21CE-4344-A8F1-83B27FC232B5}" name="Table1" displayName="Table1" ref="C4:I1304" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DCB0DF0A-21CE-4344-A8F1-83B27FC232B5}" name="Table1" displayName="Table1" ref="C4:I1252" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{603AFA90-60FC-4C5D-A4A8-3B1DFE375066}" name="Reg1"/>
     <tableColumn id="2" xr3:uid="{C66A19CD-7B96-4EFD-AC84-0AD84E431A63}" name="Reg2">
@@ -2098,12 +2092,12 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
@@ -2187,11 +2181,11 @@
       <c r="A19" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -2219,11 +2213,11 @@
       <c r="A20" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
@@ -2311,11 +2305,11 @@
       <c r="A23" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -2399,11 +2393,11 @@
       <c r="A26" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -2519,11 +2513,11 @@
       <c r="A30" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="13"/>
@@ -2551,11 +2545,11 @@
       <c r="A31" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="13"/>
@@ -5274,10 +5268,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A478C55-B92E-4CD0-9E01-B1461F89B334}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:N1304"/>
+  <dimension ref="A3:N1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1263" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1250" sqref="H1250"/>
+    <sheetView tabSelected="1" topLeftCell="A1239" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1265" sqref="M1265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7088,11 +7082,11 @@
       <c r="I52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7123,11 +7117,8 @@
       <c r="I53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N53" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7157,9 +7148,6 @@
       </c>
       <c r="I54" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="N54" s="30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -44680,19 +44668,19 @@
       </c>
       <c r="E1227" s="29" t="str" cm="1">
         <f t="array" ref="E1227">INDEX($N$5:$N$54,1+QUOTIENT(A1227-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1227" s="1" t="str">
         <f t="shared" ref="F1227:F1245" si="86">E1227</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1227" s="1" t="str">
         <f t="shared" ref="G1227:G1245" si="87">E1227</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1227" s="1" t="str">
         <f t="shared" ref="H1227:H1245" si="88">_xlfn.TEXTJOIN("_",TRUE,"TRD",E1227,C1227,D1227)</f>
-        <v>TRD_RSDAHT_National_IE-CW</v>
+        <v>TRD_RENAHT_National_IE-CW</v>
       </c>
       <c r="I1227" s="9" t="s">
         <v>70</v>
@@ -44712,19 +44700,19 @@
       </c>
       <c r="E1228" s="29" t="str" cm="1">
         <f t="array" ref="E1228">INDEX($N$5:$N$54,1+QUOTIENT(A1228-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1228" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1228" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1228" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-CN</v>
+        <v>TRD_RENAHT_National_IE-CN</v>
       </c>
       <c r="I1228" s="9" t="s">
         <v>70</v>
@@ -44744,19 +44732,19 @@
       </c>
       <c r="E1229" s="29" t="str" cm="1">
         <f t="array" ref="E1229">INDEX($N$5:$N$54,1+QUOTIENT(A1229-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1229" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1229" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1229" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-CE</v>
+        <v>TRD_RENAHT_National_IE-CE</v>
       </c>
       <c r="I1229" s="9" t="s">
         <v>70</v>
@@ -44776,19 +44764,19 @@
       </c>
       <c r="E1230" s="29" t="str" cm="1">
         <f t="array" ref="E1230">INDEX($N$5:$N$54,1+QUOTIENT(A1230-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1230" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1230" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1230" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-CO</v>
+        <v>TRD_RENAHT_National_IE-CO</v>
       </c>
       <c r="I1230" s="9" t="s">
         <v>70</v>
@@ -44808,19 +44796,19 @@
       </c>
       <c r="E1231" s="29" t="str" cm="1">
         <f t="array" ref="E1231">INDEX($N$5:$N$54,1+QUOTIENT(A1231-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1231" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1231" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1231" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-DL</v>
+        <v>TRD_RENAHT_National_IE-DL</v>
       </c>
       <c r="I1231" s="9" t="s">
         <v>70</v>
@@ -44840,19 +44828,19 @@
       </c>
       <c r="E1232" s="29" t="str" cm="1">
         <f t="array" ref="E1232">INDEX($N$5:$N$54,1+QUOTIENT(A1232-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1232" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1232" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1232" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-D</v>
+        <v>TRD_RENAHT_National_IE-D</v>
       </c>
       <c r="I1232" s="9" t="s">
         <v>70</v>
@@ -44872,19 +44860,19 @@
       </c>
       <c r="E1233" s="29" t="str" cm="1">
         <f t="array" ref="E1233">INDEX($N$5:$N$54,1+QUOTIENT(A1233-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1233" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1233" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1233" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-G</v>
+        <v>TRD_RENAHT_National_IE-G</v>
       </c>
       <c r="I1233" s="9" t="s">
         <v>70</v>
@@ -44904,19 +44892,19 @@
       </c>
       <c r="E1234" s="29" t="str" cm="1">
         <f t="array" ref="E1234">INDEX($N$5:$N$54,1+QUOTIENT(A1234-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1234" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1234" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1234" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-KY</v>
+        <v>TRD_RENAHT_National_IE-KY</v>
       </c>
       <c r="I1234" s="9" t="s">
         <v>70</v>
@@ -44936,19 +44924,19 @@
       </c>
       <c r="E1235" s="29" t="str" cm="1">
         <f t="array" ref="E1235">INDEX($N$5:$N$54,1+QUOTIENT(A1235-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1235" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1235" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1235" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-KE</v>
+        <v>TRD_RENAHT_National_IE-KE</v>
       </c>
       <c r="I1235" s="9" t="s">
         <v>70</v>
@@ -44968,19 +44956,19 @@
       </c>
       <c r="E1236" s="29" t="str" cm="1">
         <f t="array" ref="E1236">INDEX($N$5:$N$54,1+QUOTIENT(A1236-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1236" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1236" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1236" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-KK</v>
+        <v>TRD_RENAHT_National_IE-KK</v>
       </c>
       <c r="I1236" s="9" t="s">
         <v>70</v>
@@ -45000,19 +44988,19 @@
       </c>
       <c r="E1237" s="29" t="str" cm="1">
         <f t="array" ref="E1237">INDEX($N$5:$N$54,1+QUOTIENT(A1237-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1237" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1237" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1237" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-LS</v>
+        <v>TRD_RENAHT_National_IE-LS</v>
       </c>
       <c r="I1237" s="9" t="s">
         <v>70</v>
@@ -45032,19 +45020,19 @@
       </c>
       <c r="E1238" s="29" t="str" cm="1">
         <f t="array" ref="E1238">INDEX($N$5:$N$54,1+QUOTIENT(A1238-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1238" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1238" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1238" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-LM</v>
+        <v>TRD_RENAHT_National_IE-LM</v>
       </c>
       <c r="I1238" s="9" t="s">
         <v>70</v>
@@ -45064,19 +45052,19 @@
       </c>
       <c r="E1239" s="29" t="str" cm="1">
         <f t="array" ref="E1239">INDEX($N$5:$N$54,1+QUOTIENT(A1239-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1239" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1239" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1239" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-LK</v>
+        <v>TRD_RENAHT_National_IE-LK</v>
       </c>
       <c r="I1239" s="9" t="s">
         <v>70</v>
@@ -45096,19 +45084,19 @@
       </c>
       <c r="E1240" s="29" t="str" cm="1">
         <f t="array" ref="E1240">INDEX($N$5:$N$54,1+QUOTIENT(A1240-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1240" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1240" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1240" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-LD</v>
+        <v>TRD_RENAHT_National_IE-LD</v>
       </c>
       <c r="I1240" s="9" t="s">
         <v>70</v>
@@ -45128,19 +45116,19 @@
       </c>
       <c r="E1241" s="29" t="str" cm="1">
         <f t="array" ref="E1241">INDEX($N$5:$N$54,1+QUOTIENT(A1241-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1241" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1241" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1241" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-LH</v>
+        <v>TRD_RENAHT_National_IE-LH</v>
       </c>
       <c r="I1241" s="9" t="s">
         <v>70</v>
@@ -45160,19 +45148,19 @@
       </c>
       <c r="E1242" s="29" t="str" cm="1">
         <f t="array" ref="E1242">INDEX($N$5:$N$54,1+QUOTIENT(A1242-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1242" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1242" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1242" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-MO</v>
+        <v>TRD_RENAHT_National_IE-MO</v>
       </c>
       <c r="I1242" s="9" t="s">
         <v>70</v>
@@ -45192,19 +45180,19 @@
       </c>
       <c r="E1243" s="29" t="str" cm="1">
         <f t="array" ref="E1243">INDEX($N$5:$N$54,1+QUOTIENT(A1243-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1243" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1243" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1243" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-MH</v>
+        <v>TRD_RENAHT_National_IE-MH</v>
       </c>
       <c r="I1243" s="9" t="s">
         <v>70</v>
@@ -45224,19 +45212,19 @@
       </c>
       <c r="E1244" s="29" t="str" cm="1">
         <f t="array" ref="E1244">INDEX($N$5:$N$54,1+QUOTIENT(A1244-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1244" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1244" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1244" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-MN</v>
+        <v>TRD_RENAHT_National_IE-MN</v>
       </c>
       <c r="I1244" s="9" t="s">
         <v>70</v>
@@ -45256,19 +45244,19 @@
       </c>
       <c r="E1245" s="29" t="str" cm="1">
         <f t="array" ref="E1245">INDEX($N$5:$N$54,1+QUOTIENT(A1245-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1245" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1245" s="1" t="str">
         <f t="shared" si="87"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1245" s="1" t="str">
         <f t="shared" si="88"/>
-        <v>TRD_RSDAHT_National_IE-OY</v>
+        <v>TRD_RENAHT_National_IE-OY</v>
       </c>
       <c r="I1245" s="9" t="s">
         <v>70</v>
@@ -45288,19 +45276,19 @@
       </c>
       <c r="E1246" s="29" t="str" cm="1">
         <f t="array" ref="E1246">INDEX($N$5:$N$54,1+QUOTIENT(A1246-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1246" s="1" t="str">
         <f t="shared" ref="F1246:F1278" si="89">E1246</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1246" s="1" t="str">
         <f t="shared" ref="G1246:G1278" si="90">E1246</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1246" s="1" t="str">
         <f t="shared" ref="H1246:H1278" si="91">_xlfn.TEXTJOIN("_",TRUE,"TRD",E1246,C1246,D1246)</f>
-        <v>TRD_RSDAHT_National_IE-RN</v>
+        <v>TRD_RENAHT_National_IE-RN</v>
       </c>
       <c r="I1246" s="9" t="s">
         <v>70</v>
@@ -45320,19 +45308,19 @@
       </c>
       <c r="E1247" s="29" t="str" cm="1">
         <f t="array" ref="E1247">INDEX($N$5:$N$54,1+QUOTIENT(A1247-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1247" s="1" t="str">
         <f t="shared" si="89"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1247" s="1" t="str">
         <f t="shared" si="90"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1247" s="1" t="str">
         <f t="shared" si="91"/>
-        <v>TRD_RSDAHT_National_IE-SO</v>
+        <v>TRD_RENAHT_National_IE-SO</v>
       </c>
       <c r="I1247" s="9" t="s">
         <v>70</v>
@@ -45352,19 +45340,19 @@
       </c>
       <c r="E1248" s="29" t="str" cm="1">
         <f t="array" ref="E1248">INDEX($N$5:$N$54,1+QUOTIENT(A1248-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1248" s="1" t="str">
         <f t="shared" si="89"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1248" s="1" t="str">
         <f t="shared" si="90"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1248" s="1" t="str">
         <f t="shared" si="91"/>
-        <v>TRD_RSDAHT_National_IE-TA</v>
+        <v>TRD_RENAHT_National_IE-TA</v>
       </c>
       <c r="I1248" s="9" t="s">
         <v>70</v>
@@ -45384,19 +45372,19 @@
       </c>
       <c r="E1249" s="29" t="str" cm="1">
         <f t="array" ref="E1249">INDEX($N$5:$N$54,1+QUOTIENT(A1249-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1249" s="1" t="str">
         <f t="shared" si="89"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1249" s="1" t="str">
         <f t="shared" si="90"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1249" s="1" t="str">
         <f t="shared" si="91"/>
-        <v>TRD_RSDAHT_National_IE-WD</v>
+        <v>TRD_RENAHT_National_IE-WD</v>
       </c>
       <c r="I1249" s="9" t="s">
         <v>70</v>
@@ -45416,19 +45404,19 @@
       </c>
       <c r="E1250" s="29" t="str" cm="1">
         <f t="array" ref="E1250">INDEX($N$5:$N$54,1+QUOTIENT(A1250-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1250" s="1" t="str">
         <f t="shared" si="89"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1250" s="1" t="str">
         <f t="shared" si="90"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1250" s="1" t="str">
         <f t="shared" si="91"/>
-        <v>TRD_RSDAHT_National_IE-WH</v>
+        <v>TRD_RENAHT_National_IE-WH</v>
       </c>
       <c r="I1250" s="9" t="s">
         <v>70</v>
@@ -45448,19 +45436,19 @@
       </c>
       <c r="E1251" s="29" t="str" cm="1">
         <f t="array" ref="E1251">INDEX($N$5:$N$54,1+QUOTIENT(A1251-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1251" s="1" t="str">
         <f t="shared" si="89"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1251" s="1" t="str">
         <f t="shared" si="90"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1251" s="1" t="str">
         <f t="shared" si="91"/>
-        <v>TRD_RSDAHT_National_IE-WX</v>
+        <v>TRD_RENAHT_National_IE-WX</v>
       </c>
       <c r="I1251" s="9" t="s">
         <v>70</v>
@@ -45480,1685 +45468,21 @@
       </c>
       <c r="E1252" s="29" t="str" cm="1">
         <f t="array" ref="E1252">INDEX($N$5:$N$54,1+QUOTIENT(A1252-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="F1252" s="1" t="str">
         <f t="shared" si="89"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="G1252" s="1" t="str">
         <f t="shared" si="90"/>
-        <v>RSDAHT</v>
+        <v>RENAHT</v>
       </c>
       <c r="H1252" s="1" t="str">
         <f t="shared" si="91"/>
-        <v>TRD_RSDAHT_National_IE-WW</v>
+        <v>TRD_RENAHT_National_IE-WW</v>
       </c>
       <c r="I1252" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1253" s="1">
-        <f t="shared" si="85"/>
-        <v>1249</v>
-      </c>
-      <c r="C1253" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1253" s="1" t="str" cm="1">
-        <f t="array" ref="D1253">INDEX($M$5:$M$30,1+MOD(A1253-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CW</v>
-      </c>
-      <c r="E1253" s="29" t="str" cm="1">
-        <f t="array" ref="E1253">INDEX($N$5:$N$54,1+QUOTIENT(A1253-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1253" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1253" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1253" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-CW</v>
-      </c>
-      <c r="I1253" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1254" s="1">
-        <f t="shared" si="85"/>
-        <v>1250</v>
-      </c>
-      <c r="C1254" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1254" s="1" t="str" cm="1">
-        <f t="array" ref="D1254">INDEX($M$5:$M$30,1+MOD(A1254-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CN</v>
-      </c>
-      <c r="E1254" s="29" t="str" cm="1">
-        <f t="array" ref="E1254">INDEX($N$5:$N$54,1+QUOTIENT(A1254-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1254" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1254" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1254" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-CN</v>
-      </c>
-      <c r="I1254" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1255" s="1">
-        <f t="shared" si="85"/>
-        <v>1251</v>
-      </c>
-      <c r="C1255" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1255" s="1" t="str" cm="1">
-        <f t="array" ref="D1255">INDEX($M$5:$M$30,1+MOD(A1255-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CE</v>
-      </c>
-      <c r="E1255" s="29" t="str" cm="1">
-        <f t="array" ref="E1255">INDEX($N$5:$N$54,1+QUOTIENT(A1255-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1255" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1255" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1255" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-CE</v>
-      </c>
-      <c r="I1255" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1256" s="1">
-        <f t="shared" si="85"/>
-        <v>1252</v>
-      </c>
-      <c r="C1256" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1256" s="1" t="str" cm="1">
-        <f t="array" ref="D1256">INDEX($M$5:$M$30,1+MOD(A1256-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CO</v>
-      </c>
-      <c r="E1256" s="29" t="str" cm="1">
-        <f t="array" ref="E1256">INDEX($N$5:$N$54,1+QUOTIENT(A1256-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1256" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1256" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1256" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-CO</v>
-      </c>
-      <c r="I1256" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1257" s="1">
-        <f t="shared" si="85"/>
-        <v>1253</v>
-      </c>
-      <c r="C1257" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1257" s="1" t="str" cm="1">
-        <f t="array" ref="D1257">INDEX($M$5:$M$30,1+MOD(A1257-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-DL</v>
-      </c>
-      <c r="E1257" s="29" t="str" cm="1">
-        <f t="array" ref="E1257">INDEX($N$5:$N$54,1+QUOTIENT(A1257-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1257" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1257" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1257" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-DL</v>
-      </c>
-      <c r="I1257" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1258" s="1">
-        <f t="shared" si="85"/>
-        <v>1254</v>
-      </c>
-      <c r="C1258" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1258" s="1" t="str" cm="1">
-        <f t="array" ref="D1258">INDEX($M$5:$M$30,1+MOD(A1258-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-D</v>
-      </c>
-      <c r="E1258" s="29" t="str" cm="1">
-        <f t="array" ref="E1258">INDEX($N$5:$N$54,1+QUOTIENT(A1258-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1258" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1258" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1258" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-D</v>
-      </c>
-      <c r="I1258" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1259" s="1">
-        <f t="shared" si="85"/>
-        <v>1255</v>
-      </c>
-      <c r="C1259" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1259" s="1" t="str" cm="1">
-        <f t="array" ref="D1259">INDEX($M$5:$M$30,1+MOD(A1259-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-G</v>
-      </c>
-      <c r="E1259" s="29" t="str" cm="1">
-        <f t="array" ref="E1259">INDEX($N$5:$N$54,1+QUOTIENT(A1259-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1259" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1259" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1259" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-G</v>
-      </c>
-      <c r="I1259" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1260" s="1">
-        <f t="shared" si="85"/>
-        <v>1256</v>
-      </c>
-      <c r="C1260" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1260" s="1" t="str" cm="1">
-        <f t="array" ref="D1260">INDEX($M$5:$M$30,1+MOD(A1260-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-KY</v>
-      </c>
-      <c r="E1260" s="29" t="str" cm="1">
-        <f t="array" ref="E1260">INDEX($N$5:$N$54,1+QUOTIENT(A1260-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1260" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1260" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1260" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-KY</v>
-      </c>
-      <c r="I1260" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1261" s="1">
-        <f t="shared" si="85"/>
-        <v>1257</v>
-      </c>
-      <c r="C1261" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1261" s="1" t="str" cm="1">
-        <f t="array" ref="D1261">INDEX($M$5:$M$30,1+MOD(A1261-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-KE</v>
-      </c>
-      <c r="E1261" s="29" t="str" cm="1">
-        <f t="array" ref="E1261">INDEX($N$5:$N$54,1+QUOTIENT(A1261-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1261" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1261" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1261" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-KE</v>
-      </c>
-      <c r="I1261" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1262" s="1">
-        <f t="shared" si="85"/>
-        <v>1258</v>
-      </c>
-      <c r="C1262" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1262" s="1" t="str" cm="1">
-        <f t="array" ref="D1262">INDEX($M$5:$M$30,1+MOD(A1262-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-KK</v>
-      </c>
-      <c r="E1262" s="29" t="str" cm="1">
-        <f t="array" ref="E1262">INDEX($N$5:$N$54,1+QUOTIENT(A1262-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1262" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1262" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1262" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-KK</v>
-      </c>
-      <c r="I1262" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1263" s="1">
-        <f t="shared" si="85"/>
-        <v>1259</v>
-      </c>
-      <c r="C1263" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1263" s="1" t="str" cm="1">
-        <f t="array" ref="D1263">INDEX($M$5:$M$30,1+MOD(A1263-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LS</v>
-      </c>
-      <c r="E1263" s="29" t="str" cm="1">
-        <f t="array" ref="E1263">INDEX($N$5:$N$54,1+QUOTIENT(A1263-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1263" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1263" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1263" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-LS</v>
-      </c>
-      <c r="I1263" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1264" s="1">
-        <f t="shared" si="85"/>
-        <v>1260</v>
-      </c>
-      <c r="C1264" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1264" s="1" t="str" cm="1">
-        <f t="array" ref="D1264">INDEX($M$5:$M$30,1+MOD(A1264-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LM</v>
-      </c>
-      <c r="E1264" s="29" t="str" cm="1">
-        <f t="array" ref="E1264">INDEX($N$5:$N$54,1+QUOTIENT(A1264-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1264" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1264" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1264" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-LM</v>
-      </c>
-      <c r="I1264" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1265" s="1">
-        <f t="shared" si="85"/>
-        <v>1261</v>
-      </c>
-      <c r="C1265" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1265" s="1" t="str" cm="1">
-        <f t="array" ref="D1265">INDEX($M$5:$M$30,1+MOD(A1265-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LK</v>
-      </c>
-      <c r="E1265" s="29" t="str" cm="1">
-        <f t="array" ref="E1265">INDEX($N$5:$N$54,1+QUOTIENT(A1265-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1265" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1265" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1265" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-LK</v>
-      </c>
-      <c r="I1265" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1266" s="1">
-        <f t="shared" si="85"/>
-        <v>1262</v>
-      </c>
-      <c r="C1266" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1266" s="1" t="str" cm="1">
-        <f t="array" ref="D1266">INDEX($M$5:$M$30,1+MOD(A1266-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LD</v>
-      </c>
-      <c r="E1266" s="29" t="str" cm="1">
-        <f t="array" ref="E1266">INDEX($N$5:$N$54,1+QUOTIENT(A1266-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1266" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1266" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1266" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-LD</v>
-      </c>
-      <c r="I1266" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1267" s="1">
-        <f t="shared" si="85"/>
-        <v>1263</v>
-      </c>
-      <c r="C1267" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1267" s="1" t="str" cm="1">
-        <f t="array" ref="D1267">INDEX($M$5:$M$30,1+MOD(A1267-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LH</v>
-      </c>
-      <c r="E1267" s="29" t="str" cm="1">
-        <f t="array" ref="E1267">INDEX($N$5:$N$54,1+QUOTIENT(A1267-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1267" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1267" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1267" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-LH</v>
-      </c>
-      <c r="I1267" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1268" s="1">
-        <f t="shared" si="85"/>
-        <v>1264</v>
-      </c>
-      <c r="C1268" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1268" s="1" t="str" cm="1">
-        <f t="array" ref="D1268">INDEX($M$5:$M$30,1+MOD(A1268-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-MO</v>
-      </c>
-      <c r="E1268" s="29" t="str" cm="1">
-        <f t="array" ref="E1268">INDEX($N$5:$N$54,1+QUOTIENT(A1268-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1268" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1268" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1268" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-MO</v>
-      </c>
-      <c r="I1268" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1269" s="1">
-        <f t="shared" si="85"/>
-        <v>1265</v>
-      </c>
-      <c r="C1269" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1269" s="1" t="str" cm="1">
-        <f t="array" ref="D1269">INDEX($M$5:$M$30,1+MOD(A1269-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-MH</v>
-      </c>
-      <c r="E1269" s="29" t="str" cm="1">
-        <f t="array" ref="E1269">INDEX($N$5:$N$54,1+QUOTIENT(A1269-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1269" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1269" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1269" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-MH</v>
-      </c>
-      <c r="I1269" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1270" s="1">
-        <f t="shared" si="85"/>
-        <v>1266</v>
-      </c>
-      <c r="C1270" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1270" s="1" t="str" cm="1">
-        <f t="array" ref="D1270">INDEX($M$5:$M$30,1+MOD(A1270-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-MN</v>
-      </c>
-      <c r="E1270" s="29" t="str" cm="1">
-        <f t="array" ref="E1270">INDEX($N$5:$N$54,1+QUOTIENT(A1270-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1270" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1270" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1270" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-MN</v>
-      </c>
-      <c r="I1270" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1271" s="1">
-        <f t="shared" si="85"/>
-        <v>1267</v>
-      </c>
-      <c r="C1271" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1271" s="1" t="str" cm="1">
-        <f t="array" ref="D1271">INDEX($M$5:$M$30,1+MOD(A1271-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-OY</v>
-      </c>
-      <c r="E1271" s="29" t="str" cm="1">
-        <f t="array" ref="E1271">INDEX($N$5:$N$54,1+QUOTIENT(A1271-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1271" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1271" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1271" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-OY</v>
-      </c>
-      <c r="I1271" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1272" s="1">
-        <f t="shared" si="85"/>
-        <v>1268</v>
-      </c>
-      <c r="C1272" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1272" s="1" t="str" cm="1">
-        <f t="array" ref="D1272">INDEX($M$5:$M$30,1+MOD(A1272-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-RN</v>
-      </c>
-      <c r="E1272" s="29" t="str" cm="1">
-        <f t="array" ref="E1272">INDEX($N$5:$N$54,1+QUOTIENT(A1272-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1272" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1272" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1272" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-RN</v>
-      </c>
-      <c r="I1272" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1273" s="1">
-        <f t="shared" si="85"/>
-        <v>1269</v>
-      </c>
-      <c r="C1273" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1273" s="1" t="str" cm="1">
-        <f t="array" ref="D1273">INDEX($M$5:$M$30,1+MOD(A1273-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-SO</v>
-      </c>
-      <c r="E1273" s="29" t="str" cm="1">
-        <f t="array" ref="E1273">INDEX($N$5:$N$54,1+QUOTIENT(A1273-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1273" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1273" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1273" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-SO</v>
-      </c>
-      <c r="I1273" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1274" s="1">
-        <f t="shared" si="85"/>
-        <v>1270</v>
-      </c>
-      <c r="C1274" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1274" s="1" t="str" cm="1">
-        <f t="array" ref="D1274">INDEX($M$5:$M$30,1+MOD(A1274-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-TA</v>
-      </c>
-      <c r="E1274" s="29" t="str" cm="1">
-        <f t="array" ref="E1274">INDEX($N$5:$N$54,1+QUOTIENT(A1274-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1274" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1274" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1274" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-TA</v>
-      </c>
-      <c r="I1274" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1275" s="1">
-        <f t="shared" si="85"/>
-        <v>1271</v>
-      </c>
-      <c r="C1275" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1275" s="1" t="str" cm="1">
-        <f t="array" ref="D1275">INDEX($M$5:$M$30,1+MOD(A1275-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WD</v>
-      </c>
-      <c r="E1275" s="29" t="str" cm="1">
-        <f t="array" ref="E1275">INDEX($N$5:$N$54,1+QUOTIENT(A1275-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1275" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1275" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1275" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-WD</v>
-      </c>
-      <c r="I1275" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1276" s="1">
-        <f t="shared" si="85"/>
-        <v>1272</v>
-      </c>
-      <c r="C1276" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1276" s="1" t="str" cm="1">
-        <f t="array" ref="D1276">INDEX($M$5:$M$30,1+MOD(A1276-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WH</v>
-      </c>
-      <c r="E1276" s="29" t="str" cm="1">
-        <f t="array" ref="E1276">INDEX($N$5:$N$54,1+QUOTIENT(A1276-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1276" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1276" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1276" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-WH</v>
-      </c>
-      <c r="I1276" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1277" s="1">
-        <f t="shared" si="85"/>
-        <v>1273</v>
-      </c>
-      <c r="C1277" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1277" s="1" t="str" cm="1">
-        <f t="array" ref="D1277">INDEX($M$5:$M$30,1+MOD(A1277-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WX</v>
-      </c>
-      <c r="E1277" s="29" t="str" cm="1">
-        <f t="array" ref="E1277">INDEX($N$5:$N$54,1+QUOTIENT(A1277-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1277" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1277" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1277" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-WX</v>
-      </c>
-      <c r="I1277" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1278" s="1">
-        <f t="shared" si="85"/>
-        <v>1274</v>
-      </c>
-      <c r="C1278" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1278" s="1" t="str" cm="1">
-        <f t="array" ref="D1278">INDEX($M$5:$M$30,1+MOD(A1278-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WW</v>
-      </c>
-      <c r="E1278" s="29" t="str" cm="1">
-        <f t="array" ref="E1278">INDEX($N$5:$N$54,1+QUOTIENT(A1278-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="F1278" s="1" t="str">
-        <f t="shared" si="89"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="G1278" s="1" t="str">
-        <f t="shared" si="90"/>
-        <v>RSDAHT2</v>
-      </c>
-      <c r="H1278" s="1" t="str">
-        <f t="shared" si="91"/>
-        <v>TRD_RSDAHT2_National_IE-WW</v>
-      </c>
-      <c r="I1278" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1279" s="1">
-        <f t="shared" si="85"/>
-        <v>1275</v>
-      </c>
-      <c r="C1279" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1279" s="1" t="str" cm="1">
-        <f t="array" ref="D1279">INDEX($M$5:$M$30,1+MOD(A1279-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CW</v>
-      </c>
-      <c r="E1279" s="29" t="str" cm="1">
-        <f t="array" ref="E1279">INDEX($N$5:$N$54,1+QUOTIENT(A1279-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1279" s="1" t="str">
-        <f t="shared" ref="F1279:F1304" si="92">E1279</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1279" s="1" t="str">
-        <f t="shared" ref="G1279:G1304" si="93">E1279</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1279" s="1" t="str">
-        <f t="shared" ref="H1279:H1304" si="94">_xlfn.TEXTJOIN("_",TRUE,"TRD",E1279,C1279,D1279)</f>
-        <v>TRD_RENAHT_National_IE-CW</v>
-      </c>
-      <c r="I1279" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1280" s="1">
-        <f t="shared" si="85"/>
-        <v>1276</v>
-      </c>
-      <c r="C1280" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1280" s="1" t="str" cm="1">
-        <f t="array" ref="D1280">INDEX($M$5:$M$30,1+MOD(A1280-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CN</v>
-      </c>
-      <c r="E1280" s="29" t="str" cm="1">
-        <f t="array" ref="E1280">INDEX($N$5:$N$54,1+QUOTIENT(A1280-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1280" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1280" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1280" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-CN</v>
-      </c>
-      <c r="I1280" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1281" s="1">
-        <f t="shared" si="85"/>
-        <v>1277</v>
-      </c>
-      <c r="C1281" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1281" s="1" t="str" cm="1">
-        <f t="array" ref="D1281">INDEX($M$5:$M$30,1+MOD(A1281-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CE</v>
-      </c>
-      <c r="E1281" s="29" t="str" cm="1">
-        <f t="array" ref="E1281">INDEX($N$5:$N$54,1+QUOTIENT(A1281-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1281" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1281" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1281" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-CE</v>
-      </c>
-      <c r="I1281" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1282" s="1">
-        <f t="shared" si="85"/>
-        <v>1278</v>
-      </c>
-      <c r="C1282" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1282" s="1" t="str" cm="1">
-        <f t="array" ref="D1282">INDEX($M$5:$M$30,1+MOD(A1282-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-CO</v>
-      </c>
-      <c r="E1282" s="29" t="str" cm="1">
-        <f t="array" ref="E1282">INDEX($N$5:$N$54,1+QUOTIENT(A1282-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1282" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1282" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1282" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-CO</v>
-      </c>
-      <c r="I1282" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1283" s="1">
-        <f t="shared" si="85"/>
-        <v>1279</v>
-      </c>
-      <c r="C1283" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1283" s="1" t="str" cm="1">
-        <f t="array" ref="D1283">INDEX($M$5:$M$30,1+MOD(A1283-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-DL</v>
-      </c>
-      <c r="E1283" s="29" t="str" cm="1">
-        <f t="array" ref="E1283">INDEX($N$5:$N$54,1+QUOTIENT(A1283-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1283" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1283" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1283" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-DL</v>
-      </c>
-      <c r="I1283" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1284" s="1">
-        <f t="shared" si="85"/>
-        <v>1280</v>
-      </c>
-      <c r="C1284" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1284" s="1" t="str" cm="1">
-        <f t="array" ref="D1284">INDEX($M$5:$M$30,1+MOD(A1284-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-D</v>
-      </c>
-      <c r="E1284" s="29" t="str" cm="1">
-        <f t="array" ref="E1284">INDEX($N$5:$N$54,1+QUOTIENT(A1284-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1284" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1284" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1284" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-D</v>
-      </c>
-      <c r="I1284" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1285" s="1">
-        <f t="shared" si="85"/>
-        <v>1281</v>
-      </c>
-      <c r="C1285" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1285" s="1" t="str" cm="1">
-        <f t="array" ref="D1285">INDEX($M$5:$M$30,1+MOD(A1285-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-G</v>
-      </c>
-      <c r="E1285" s="29" t="str" cm="1">
-        <f t="array" ref="E1285">INDEX($N$5:$N$54,1+QUOTIENT(A1285-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1285" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1285" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1285" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-G</v>
-      </c>
-      <c r="I1285" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1286" s="1">
-        <f t="shared" ref="A1286:A1304" si="95">A1285+1</f>
-        <v>1282</v>
-      </c>
-      <c r="C1286" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1286" s="1" t="str" cm="1">
-        <f t="array" ref="D1286">INDEX($M$5:$M$30,1+MOD(A1286-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-KY</v>
-      </c>
-      <c r="E1286" s="29" t="str" cm="1">
-        <f t="array" ref="E1286">INDEX($N$5:$N$54,1+QUOTIENT(A1286-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1286" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1286" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1286" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-KY</v>
-      </c>
-      <c r="I1286" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1287" s="1">
-        <f t="shared" si="95"/>
-        <v>1283</v>
-      </c>
-      <c r="C1287" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1287" s="1" t="str" cm="1">
-        <f t="array" ref="D1287">INDEX($M$5:$M$30,1+MOD(A1287-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-KE</v>
-      </c>
-      <c r="E1287" s="29" t="str" cm="1">
-        <f t="array" ref="E1287">INDEX($N$5:$N$54,1+QUOTIENT(A1287-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1287" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1287" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1287" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-KE</v>
-      </c>
-      <c r="I1287" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1288" s="1">
-        <f t="shared" si="95"/>
-        <v>1284</v>
-      </c>
-      <c r="C1288" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1288" s="1" t="str" cm="1">
-        <f t="array" ref="D1288">INDEX($M$5:$M$30,1+MOD(A1288-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-KK</v>
-      </c>
-      <c r="E1288" s="29" t="str" cm="1">
-        <f t="array" ref="E1288">INDEX($N$5:$N$54,1+QUOTIENT(A1288-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1288" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1288" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1288" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-KK</v>
-      </c>
-      <c r="I1288" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1289" s="1">
-        <f t="shared" si="95"/>
-        <v>1285</v>
-      </c>
-      <c r="C1289" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1289" s="1" t="str" cm="1">
-        <f t="array" ref="D1289">INDEX($M$5:$M$30,1+MOD(A1289-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LS</v>
-      </c>
-      <c r="E1289" s="29" t="str" cm="1">
-        <f t="array" ref="E1289">INDEX($N$5:$N$54,1+QUOTIENT(A1289-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1289" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1289" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1289" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-LS</v>
-      </c>
-      <c r="I1289" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1290" s="1">
-        <f t="shared" si="95"/>
-        <v>1286</v>
-      </c>
-      <c r="C1290" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1290" s="1" t="str" cm="1">
-        <f t="array" ref="D1290">INDEX($M$5:$M$30,1+MOD(A1290-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LM</v>
-      </c>
-      <c r="E1290" s="29" t="str" cm="1">
-        <f t="array" ref="E1290">INDEX($N$5:$N$54,1+QUOTIENT(A1290-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1290" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1290" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1290" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-LM</v>
-      </c>
-      <c r="I1290" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1291" s="1">
-        <f t="shared" si="95"/>
-        <v>1287</v>
-      </c>
-      <c r="C1291" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1291" s="1" t="str" cm="1">
-        <f t="array" ref="D1291">INDEX($M$5:$M$30,1+MOD(A1291-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LK</v>
-      </c>
-      <c r="E1291" s="29" t="str" cm="1">
-        <f t="array" ref="E1291">INDEX($N$5:$N$54,1+QUOTIENT(A1291-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1291" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1291" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1291" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-LK</v>
-      </c>
-      <c r="I1291" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1292" s="1">
-        <f t="shared" si="95"/>
-        <v>1288</v>
-      </c>
-      <c r="C1292" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1292" s="1" t="str" cm="1">
-        <f t="array" ref="D1292">INDEX($M$5:$M$30,1+MOD(A1292-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LD</v>
-      </c>
-      <c r="E1292" s="29" t="str" cm="1">
-        <f t="array" ref="E1292">INDEX($N$5:$N$54,1+QUOTIENT(A1292-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1292" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1292" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1292" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-LD</v>
-      </c>
-      <c r="I1292" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1293" s="1">
-        <f t="shared" si="95"/>
-        <v>1289</v>
-      </c>
-      <c r="C1293" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1293" s="1" t="str" cm="1">
-        <f t="array" ref="D1293">INDEX($M$5:$M$30,1+MOD(A1293-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-LH</v>
-      </c>
-      <c r="E1293" s="29" t="str" cm="1">
-        <f t="array" ref="E1293">INDEX($N$5:$N$54,1+QUOTIENT(A1293-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1293" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1293" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1293" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-LH</v>
-      </c>
-      <c r="I1293" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1294" s="1">
-        <f t="shared" si="95"/>
-        <v>1290</v>
-      </c>
-      <c r="C1294" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1294" s="1" t="str" cm="1">
-        <f t="array" ref="D1294">INDEX($M$5:$M$30,1+MOD(A1294-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-MO</v>
-      </c>
-      <c r="E1294" s="29" t="str" cm="1">
-        <f t="array" ref="E1294">INDEX($N$5:$N$54,1+QUOTIENT(A1294-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1294" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1294" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1294" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-MO</v>
-      </c>
-      <c r="I1294" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1295" s="1">
-        <f t="shared" si="95"/>
-        <v>1291</v>
-      </c>
-      <c r="C1295" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1295" s="1" t="str" cm="1">
-        <f t="array" ref="D1295">INDEX($M$5:$M$30,1+MOD(A1295-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-MH</v>
-      </c>
-      <c r="E1295" s="29" t="str" cm="1">
-        <f t="array" ref="E1295">INDEX($N$5:$N$54,1+QUOTIENT(A1295-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1295" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1295" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1295" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-MH</v>
-      </c>
-      <c r="I1295" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1296" s="1">
-        <f t="shared" si="95"/>
-        <v>1292</v>
-      </c>
-      <c r="C1296" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1296" s="1" t="str" cm="1">
-        <f t="array" ref="D1296">INDEX($M$5:$M$30,1+MOD(A1296-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-MN</v>
-      </c>
-      <c r="E1296" s="29" t="str" cm="1">
-        <f t="array" ref="E1296">INDEX($N$5:$N$54,1+QUOTIENT(A1296-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1296" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1296" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1296" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-MN</v>
-      </c>
-      <c r="I1296" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1297" s="1">
-        <f t="shared" si="95"/>
-        <v>1293</v>
-      </c>
-      <c r="C1297" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1297" s="1" t="str" cm="1">
-        <f t="array" ref="D1297">INDEX($M$5:$M$30,1+MOD(A1297-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-OY</v>
-      </c>
-      <c r="E1297" s="29" t="str" cm="1">
-        <f t="array" ref="E1297">INDEX($N$5:$N$54,1+QUOTIENT(A1297-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1297" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1297" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1297" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-OY</v>
-      </c>
-      <c r="I1297" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1298" s="1">
-        <f t="shared" si="95"/>
-        <v>1294</v>
-      </c>
-      <c r="C1298" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1298" s="1" t="str" cm="1">
-        <f t="array" ref="D1298">INDEX($M$5:$M$30,1+MOD(A1298-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-RN</v>
-      </c>
-      <c r="E1298" s="29" t="str" cm="1">
-        <f t="array" ref="E1298">INDEX($N$5:$N$54,1+QUOTIENT(A1298-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1298" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1298" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1298" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-RN</v>
-      </c>
-      <c r="I1298" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1299" s="1">
-        <f t="shared" si="95"/>
-        <v>1295</v>
-      </c>
-      <c r="C1299" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1299" s="1" t="str" cm="1">
-        <f t="array" ref="D1299">INDEX($M$5:$M$30,1+MOD(A1299-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-SO</v>
-      </c>
-      <c r="E1299" s="29" t="str" cm="1">
-        <f t="array" ref="E1299">INDEX($N$5:$N$54,1+QUOTIENT(A1299-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1299" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1299" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1299" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-SO</v>
-      </c>
-      <c r="I1299" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1300" s="1">
-        <f t="shared" si="95"/>
-        <v>1296</v>
-      </c>
-      <c r="C1300" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1300" s="1" t="str" cm="1">
-        <f t="array" ref="D1300">INDEX($M$5:$M$30,1+MOD(A1300-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-TA</v>
-      </c>
-      <c r="E1300" s="29" t="str" cm="1">
-        <f t="array" ref="E1300">INDEX($N$5:$N$54,1+QUOTIENT(A1300-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1300" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1300" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1300" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-TA</v>
-      </c>
-      <c r="I1300" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1301" s="1">
-        <f t="shared" si="95"/>
-        <v>1297</v>
-      </c>
-      <c r="C1301" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1301" s="1" t="str" cm="1">
-        <f t="array" ref="D1301">INDEX($M$5:$M$30,1+MOD(A1301-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WD</v>
-      </c>
-      <c r="E1301" s="29" t="str" cm="1">
-        <f t="array" ref="E1301">INDEX($N$5:$N$54,1+QUOTIENT(A1301-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1301" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1301" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1301" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-WD</v>
-      </c>
-      <c r="I1301" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1302" s="1">
-        <f t="shared" si="95"/>
-        <v>1298</v>
-      </c>
-      <c r="C1302" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1302" s="1" t="str" cm="1">
-        <f t="array" ref="D1302">INDEX($M$5:$M$30,1+MOD(A1302-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WH</v>
-      </c>
-      <c r="E1302" s="29" t="str" cm="1">
-        <f t="array" ref="E1302">INDEX($N$5:$N$54,1+QUOTIENT(A1302-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1302" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1302" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1302" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-WH</v>
-      </c>
-      <c r="I1302" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1303" s="1">
-        <f t="shared" si="95"/>
-        <v>1299</v>
-      </c>
-      <c r="C1303" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1303" s="1" t="str" cm="1">
-        <f t="array" ref="D1303">INDEX($M$5:$M$30,1+MOD(A1303-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WX</v>
-      </c>
-      <c r="E1303" s="29" t="str" cm="1">
-        <f t="array" ref="E1303">INDEX($N$5:$N$54,1+QUOTIENT(A1303-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1303" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1303" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1303" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-WX</v>
-      </c>
-      <c r="I1303" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1304" s="1">
-        <f t="shared" si="95"/>
-        <v>1300</v>
-      </c>
-      <c r="C1304" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1304" s="1" t="str" cm="1">
-        <f t="array" ref="D1304">INDEX($M$5:$M$30,1+MOD(A1304-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>IE-WW</v>
-      </c>
-      <c r="E1304" s="29" t="str" cm="1">
-        <f t="array" ref="E1304">INDEX($N$5:$N$54,1+QUOTIENT(A1304-1,COUNTA($M$5:$M$30)),0)</f>
-        <v>RENAHT</v>
-      </c>
-      <c r="F1304" s="1" t="str">
-        <f t="shared" si="92"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="G1304" s="1" t="str">
-        <f t="shared" si="93"/>
-        <v>RENAHT</v>
-      </c>
-      <c r="H1304" s="1" t="str">
-        <f t="shared" si="94"/>
-        <v>TRD_RENAHT_National_IE-WW</v>
-      </c>
-      <c r="I1304" s="9" t="s">
         <v>70</v>
       </c>
     </row>
